--- a/ScheduleBot Class Info Reformatted.xlsx
+++ b/ScheduleBot Class Info Reformatted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Gabe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ScheduleBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA653AAF-B469-4347-A478-4090901827A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="152">
   <si>
     <t>Class</t>
   </si>
@@ -474,11 +475,14 @@
   <si>
     <t>Wait until Senior Year, 185B</t>
   </si>
+  <si>
+    <t>MAT 185A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -823,17 +827,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2788,7 +2792,9 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="K41" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="2"/>
@@ -2955,7 +2961,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
